--- a/Defect_FT_23.xlsx
+++ b/Defect_FT_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soham\Desktop\openEMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF17263-A58B-4948-A5F9-5D4AF160A741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3A016A-CC74-4BC3-9DFF-6800021B30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0D3CF89A-2D9F-4DF7-B7F0-86844FE02E45}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Field</t>
   </si>
@@ -319,15 +341,6 @@
   </si>
   <si>
     <t>Screenshot/Video Evidence</t>
-  </si>
-  <si>
-    <t>Can attach screenshot of two overlapping appointments under same time slot.</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Lack of time-slot conflict validation could cause double-booking issues for providers and administrative errors.</t>
   </si>
   <si>
     <r>
@@ -396,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -464,42 +477,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -528,12 +511,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,6 +527,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,16 +910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5D82C8-DE99-4793-9CC3-D3E34F61701D}">
-  <dimension ref="E4:F23"/>
+  <dimension ref="E4:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -895,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.3">
@@ -911,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="5:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -951,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.3">
@@ -959,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.3">
@@ -1018,20 +1059,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>31</v>
+      <c r="F22" s="9" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
